--- a/爬虫生成表.xlsx
+++ b/爬虫生成表.xlsx
@@ -1171,7 +1171,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -1462,12 +1462,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
-  <dimension ref="A1:K241"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5694,4201 +5694,17 @@
         <v>371</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
-      <c r="A122" t="s">
-        <v>11</v>
-      </c>
-      <c r="B122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" t="s">
-        <v>15</v>
-      </c>
-      <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s">
-        <v>17</v>
-      </c>
-      <c r="H122" t="s">
-        <v>18</v>
-      </c>
-      <c r="I122" t="s">
-        <v>19</v>
-      </c>
-      <c r="J122" t="s">
-        <v>20</v>
-      </c>
-      <c r="K122" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" t="s">
-        <v>11</v>
-      </c>
-      <c r="B123" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" t="s">
-        <v>22</v>
-      </c>
-      <c r="E123" t="s">
-        <v>23</v>
-      </c>
-      <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s">
-        <v>17</v>
-      </c>
-      <c r="H123" t="s">
-        <v>18</v>
-      </c>
-      <c r="I123" t="s">
-        <v>24</v>
-      </c>
-      <c r="J123" t="s">
-        <v>25</v>
-      </c>
-      <c r="K123" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124" t="s">
-        <v>11</v>
-      </c>
-      <c r="B124" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" t="s">
-        <v>27</v>
-      </c>
-      <c r="E124" t="s">
-        <v>15</v>
-      </c>
-      <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s">
-        <v>28</v>
-      </c>
-      <c r="H124" t="s">
-        <v>29</v>
-      </c>
-      <c r="I124" t="s">
-        <v>30</v>
-      </c>
-      <c r="J124" t="s">
-        <v>31</v>
-      </c>
-      <c r="K124" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125" t="s">
-        <v>11</v>
-      </c>
-      <c r="B125" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" t="s">
-        <v>33</v>
-      </c>
-      <c r="E125" t="s">
-        <v>34</v>
-      </c>
-      <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s">
-        <v>35</v>
-      </c>
-      <c r="H125" t="s">
-        <v>36</v>
-      </c>
-      <c r="I125" t="s">
-        <v>37</v>
-      </c>
-      <c r="J125" t="s">
-        <v>38</v>
-      </c>
-      <c r="K125" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126" t="s">
-        <v>11</v>
-      </c>
-      <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" t="s">
-        <v>40</v>
-      </c>
-      <c r="E126" t="s">
-        <v>23</v>
-      </c>
-      <c r="F126" t="s">
-        <v>41</v>
-      </c>
-      <c r="G126" t="s">
-        <v>42</v>
-      </c>
-      <c r="H126" t="s">
-        <v>43</v>
-      </c>
-      <c r="I126" t="s">
-        <v>44</v>
-      </c>
-      <c r="J126" t="s">
-        <v>45</v>
-      </c>
-      <c r="K126" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127" t="s">
-        <v>11</v>
-      </c>
-      <c r="B127" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" t="s">
-        <v>47</v>
-      </c>
-      <c r="E127" t="s">
-        <v>48</v>
-      </c>
-      <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s">
-        <v>49</v>
-      </c>
-      <c r="H127" t="s">
-        <v>50</v>
-      </c>
-      <c r="I127" t="s">
-        <v>51</v>
-      </c>
-      <c r="J127" t="s">
-        <v>52</v>
-      </c>
-      <c r="K127" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128" t="s">
-        <v>11</v>
-      </c>
-      <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" t="s">
-        <v>54</v>
-      </c>
-      <c r="E128" t="s">
-        <v>55</v>
-      </c>
-      <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s">
-        <v>56</v>
-      </c>
-      <c r="H128" t="s">
-        <v>57</v>
-      </c>
-      <c r="I128" t="s">
-        <v>58</v>
-      </c>
-      <c r="J128" t="s">
-        <v>20</v>
-      </c>
-      <c r="K128" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129" t="s">
-        <v>11</v>
-      </c>
-      <c r="B129" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" t="s">
-        <v>60</v>
-      </c>
-      <c r="E129" t="s">
-        <v>61</v>
-      </c>
-      <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s">
-        <v>35</v>
-      </c>
-      <c r="H129" t="s">
-        <v>36</v>
-      </c>
-      <c r="I129" t="s">
-        <v>62</v>
-      </c>
-      <c r="J129" t="s">
-        <v>63</v>
-      </c>
-      <c r="K129" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130" t="s">
-        <v>11</v>
-      </c>
-      <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" t="s">
-        <v>65</v>
-      </c>
-      <c r="E130" t="s">
-        <v>66</v>
-      </c>
-      <c r="F130" t="s">
-        <v>67</v>
-      </c>
-      <c r="G130" t="s">
-        <v>68</v>
-      </c>
-      <c r="H130" t="s">
-        <v>69</v>
-      </c>
-      <c r="I130" t="s">
-        <v>70</v>
-      </c>
-      <c r="J130" t="s">
-        <v>71</v>
-      </c>
-      <c r="K130" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131" t="s">
-        <v>11</v>
-      </c>
-      <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" t="s">
-        <v>73</v>
-      </c>
-      <c r="E131" t="s">
-        <v>74</v>
-      </c>
-      <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s">
-        <v>75</v>
-      </c>
-      <c r="H131" t="s">
-        <v>76</v>
-      </c>
-      <c r="I131" t="s">
-        <v>77</v>
-      </c>
-      <c r="J131" t="s">
-        <v>78</v>
-      </c>
-      <c r="K131" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132" t="s">
-        <v>11</v>
-      </c>
-      <c r="B132" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" t="s">
-        <v>80</v>
-      </c>
-      <c r="E132" t="s">
-        <v>81</v>
-      </c>
-      <c r="F132" t="s">
-        <v>67</v>
-      </c>
-      <c r="G132" t="s">
-        <v>68</v>
-      </c>
-      <c r="H132" t="s">
-        <v>69</v>
-      </c>
-      <c r="I132" t="s">
-        <v>82</v>
-      </c>
-      <c r="J132" t="s">
-        <v>83</v>
-      </c>
-      <c r="K132" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133" t="s">
-        <v>11</v>
-      </c>
-      <c r="B133" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" t="s">
-        <v>85</v>
-      </c>
-      <c r="E133" t="s">
-        <v>86</v>
-      </c>
-      <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s">
-        <v>28</v>
-      </c>
-      <c r="H133" t="s">
-        <v>29</v>
-      </c>
-      <c r="I133" t="s">
-        <v>87</v>
-      </c>
-      <c r="J133" t="s">
-        <v>88</v>
-      </c>
-      <c r="K133" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134" t="s">
-        <v>11</v>
-      </c>
-      <c r="B134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" t="s">
-        <v>90</v>
-      </c>
-      <c r="E134" t="s">
-        <v>91</v>
-      </c>
-      <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s">
-        <v>49</v>
-      </c>
-      <c r="H134" t="s">
-        <v>50</v>
-      </c>
-      <c r="I134" t="s">
-        <v>92</v>
-      </c>
-      <c r="J134" t="s">
-        <v>93</v>
-      </c>
-      <c r="K134" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135" t="s">
-        <v>11</v>
-      </c>
-      <c r="B135" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135" t="s">
-        <v>95</v>
-      </c>
-      <c r="E135" t="s">
-        <v>23</v>
-      </c>
-      <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s">
-        <v>96</v>
-      </c>
-      <c r="H135" t="s">
-        <v>97</v>
-      </c>
-      <c r="I135" t="s">
-        <v>98</v>
-      </c>
-      <c r="J135" t="s">
-        <v>99</v>
-      </c>
-      <c r="K135" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136" t="s">
-        <v>11</v>
-      </c>
-      <c r="B136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" t="s">
-        <v>101</v>
-      </c>
-      <c r="E136" t="s">
-        <v>102</v>
-      </c>
-      <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>103</v>
-      </c>
-      <c r="I136" t="s">
-        <v>104</v>
-      </c>
-      <c r="J136" t="s">
-        <v>105</v>
-      </c>
-      <c r="K136" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137" t="s">
-        <v>11</v>
-      </c>
-      <c r="B137" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137" t="s">
-        <v>107</v>
-      </c>
-      <c r="E137" t="s">
-        <v>108</v>
-      </c>
-      <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>103</v>
-      </c>
-      <c r="I137" t="s">
-        <v>109</v>
-      </c>
-      <c r="J137" t="s">
-        <v>110</v>
-      </c>
-      <c r="K137" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138" t="s">
-        <v>11</v>
-      </c>
-      <c r="B138" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" t="s">
-        <v>13</v>
-      </c>
-      <c r="D138" t="s">
-        <v>112</v>
-      </c>
-      <c r="E138" t="s">
-        <v>113</v>
-      </c>
-      <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>114</v>
-      </c>
-      <c r="I138" t="s">
-        <v>115</v>
-      </c>
-      <c r="J138" t="s">
-        <v>116</v>
-      </c>
-      <c r="K138" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139" t="s">
-        <v>11</v>
-      </c>
-      <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" t="s">
-        <v>118</v>
-      </c>
-      <c r="E139" t="s">
-        <v>119</v>
-      </c>
-      <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" t="s">
-        <v>120</v>
-      </c>
-      <c r="H139" t="s">
-        <v>121</v>
-      </c>
-      <c r="I139" t="s">
-        <v>122</v>
-      </c>
-      <c r="J139" t="s">
-        <v>123</v>
-      </c>
-      <c r="K139" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140" t="s">
-        <v>11</v>
-      </c>
-      <c r="B140" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140" t="s">
-        <v>125</v>
-      </c>
-      <c r="E140" t="s">
-        <v>126</v>
-      </c>
-      <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s">
-        <v>127</v>
-      </c>
-      <c r="H140" t="s">
-        <v>128</v>
-      </c>
-      <c r="I140" t="s">
-        <v>129</v>
-      </c>
-      <c r="J140" t="s">
-        <v>130</v>
-      </c>
-      <c r="K140" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141" t="s">
-        <v>11</v>
-      </c>
-      <c r="B141" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141" t="s">
-        <v>132</v>
-      </c>
-      <c r="E141" t="s">
-        <v>133</v>
-      </c>
-      <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s">
-        <v>134</v>
-      </c>
-      <c r="H141" t="s">
-        <v>135</v>
-      </c>
-      <c r="I141" t="s">
-        <v>136</v>
-      </c>
-      <c r="J141" t="s">
-        <v>137</v>
-      </c>
-      <c r="K141" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142" t="s">
-        <v>11</v>
-      </c>
-      <c r="B142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" t="s">
-        <v>139</v>
-      </c>
-      <c r="E142" t="s">
-        <v>140</v>
-      </c>
-      <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s">
-        <v>127</v>
-      </c>
-      <c r="H142" t="s">
-        <v>128</v>
-      </c>
-      <c r="I142" t="s">
-        <v>141</v>
-      </c>
-      <c r="J142" t="s">
-        <v>142</v>
-      </c>
-      <c r="K142" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143" t="s">
-        <v>11</v>
-      </c>
-      <c r="B143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" t="s">
-        <v>13</v>
-      </c>
-      <c r="D143" t="s">
-        <v>144</v>
-      </c>
-      <c r="E143" t="s">
-        <v>145</v>
-      </c>
-      <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s">
-        <v>146</v>
-      </c>
-      <c r="H143" t="s">
-        <v>147</v>
-      </c>
-      <c r="I143" t="s">
-        <v>148</v>
-      </c>
-      <c r="J143" t="s">
-        <v>149</v>
-      </c>
-      <c r="K143" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144" t="s">
-        <v>11</v>
-      </c>
-      <c r="B144" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144" t="s">
-        <v>13</v>
-      </c>
-      <c r="D144" t="s">
-        <v>151</v>
-      </c>
-      <c r="E144" t="s">
-        <v>48</v>
-      </c>
-      <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s">
-        <v>42</v>
-      </c>
-      <c r="H144" t="s">
-        <v>43</v>
-      </c>
-      <c r="I144" t="s">
-        <v>152</v>
-      </c>
-      <c r="J144" t="s">
-        <v>153</v>
-      </c>
-      <c r="K144" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145" t="s">
-        <v>11</v>
-      </c>
-      <c r="B145" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" t="s">
-        <v>13</v>
-      </c>
-      <c r="D145" t="s">
-        <v>155</v>
-      </c>
-      <c r="E145" t="s">
-        <v>156</v>
-      </c>
-      <c r="F145" t="s">
-        <v>157</v>
-      </c>
-      <c r="G145" t="s">
-        <v>158</v>
-      </c>
-      <c r="H145" t="s">
-        <v>159</v>
-      </c>
-      <c r="I145" t="s">
-        <v>160</v>
-      </c>
-      <c r="J145" t="s">
-        <v>161</v>
-      </c>
-      <c r="K145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146" t="s">
-        <v>11</v>
-      </c>
-      <c r="B146" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" t="s">
-        <v>13</v>
-      </c>
-      <c r="D146" t="s">
-        <v>163</v>
-      </c>
-      <c r="E146" t="s">
-        <v>164</v>
-      </c>
-      <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s">
-        <v>165</v>
-      </c>
-      <c r="H146" t="s">
-        <v>166</v>
-      </c>
-      <c r="I146" t="s">
-        <v>167</v>
-      </c>
-      <c r="J146" t="s">
-        <v>168</v>
-      </c>
-      <c r="K146" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="A147" t="s">
-        <v>11</v>
-      </c>
-      <c r="B147" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147" t="s">
-        <v>13</v>
-      </c>
-      <c r="D147" t="s">
-        <v>170</v>
-      </c>
-      <c r="E147" t="s">
-        <v>171</v>
-      </c>
-      <c r="F147" t="s">
-        <v>67</v>
-      </c>
-      <c r="G147" t="s">
-        <v>172</v>
-      </c>
-      <c r="H147" t="s">
-        <v>173</v>
-      </c>
-      <c r="I147" t="s">
-        <v>174</v>
-      </c>
-      <c r="J147" t="s">
-        <v>175</v>
-      </c>
-      <c r="K147" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="A148" t="s">
-        <v>11</v>
-      </c>
-      <c r="B148" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" t="s">
-        <v>13</v>
-      </c>
-      <c r="D148" t="s">
-        <v>177</v>
-      </c>
-      <c r="E148" t="s">
-        <v>178</v>
-      </c>
-      <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s">
-        <v>56</v>
-      </c>
-      <c r="H148" t="s">
-        <v>57</v>
-      </c>
-      <c r="I148" t="s">
-        <v>179</v>
-      </c>
-      <c r="J148" t="s">
-        <v>180</v>
-      </c>
-      <c r="K148" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149" t="s">
-        <v>11</v>
-      </c>
-      <c r="B149" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" t="s">
-        <v>13</v>
-      </c>
-      <c r="D149" t="s">
-        <v>182</v>
-      </c>
-      <c r="E149" t="s">
-        <v>183</v>
-      </c>
-      <c r="F149" t="s">
-        <v>157</v>
-      </c>
-      <c r="G149" t="s">
-        <v>158</v>
-      </c>
-      <c r="H149" t="s">
-        <v>159</v>
-      </c>
-      <c r="I149" t="s">
-        <v>184</v>
-      </c>
-      <c r="J149" t="s">
-        <v>185</v>
-      </c>
-      <c r="K149" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150" t="s">
-        <v>11</v>
-      </c>
-      <c r="B150" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" t="s">
-        <v>13</v>
-      </c>
-      <c r="D150" t="s">
-        <v>187</v>
-      </c>
-      <c r="E150" t="s">
-        <v>23</v>
-      </c>
-      <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s">
-        <v>96</v>
-      </c>
-      <c r="H150" t="s">
-        <v>97</v>
-      </c>
-      <c r="I150" t="s">
-        <v>188</v>
-      </c>
-      <c r="J150" t="s">
-        <v>185</v>
-      </c>
-      <c r="K150" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151" t="s">
-        <v>11</v>
-      </c>
-      <c r="B151" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" t="s">
-        <v>190</v>
-      </c>
-      <c r="E151" t="s">
-        <v>191</v>
-      </c>
-      <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" t="s">
-        <v>192</v>
-      </c>
-      <c r="H151" t="s">
-        <v>193</v>
-      </c>
-      <c r="I151" t="s">
-        <v>194</v>
-      </c>
-      <c r="J151" t="s">
-        <v>195</v>
-      </c>
-      <c r="K151" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152" t="s">
-        <v>11</v>
-      </c>
-      <c r="B152" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E152" t="s">
-        <v>23</v>
-      </c>
-      <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s">
-        <v>198</v>
-      </c>
-      <c r="H152" t="s">
-        <v>199</v>
-      </c>
-      <c r="I152" t="s">
-        <v>200</v>
-      </c>
-      <c r="J152" t="s">
-        <v>201</v>
-      </c>
-      <c r="K152" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153" t="s">
-        <v>11</v>
-      </c>
-      <c r="B153" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" t="s">
-        <v>13</v>
-      </c>
-      <c r="D153" t="s">
-        <v>203</v>
-      </c>
-      <c r="E153" t="s">
-        <v>204</v>
-      </c>
-      <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s">
-        <v>205</v>
-      </c>
-      <c r="H153" t="s">
-        <v>206</v>
-      </c>
-      <c r="I153" t="s">
-        <v>207</v>
-      </c>
-      <c r="J153" t="s">
-        <v>208</v>
-      </c>
-      <c r="K153" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" t="s">
-        <v>13</v>
-      </c>
-      <c r="D154" t="s">
-        <v>210</v>
-      </c>
-      <c r="E154" t="s">
-        <v>178</v>
-      </c>
-      <c r="F154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G154" t="s">
-        <v>211</v>
-      </c>
-      <c r="H154" t="s">
-        <v>212</v>
-      </c>
-      <c r="I154" t="s">
-        <v>213</v>
-      </c>
-      <c r="J154" t="s">
-        <v>214</v>
-      </c>
-      <c r="K154" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155" t="s">
-        <v>11</v>
-      </c>
-      <c r="B155" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" t="s">
-        <v>13</v>
-      </c>
-      <c r="D155" t="s">
-        <v>216</v>
-      </c>
-      <c r="E155" t="s">
-        <v>217</v>
-      </c>
-      <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" t="s">
-        <v>146</v>
-      </c>
-      <c r="H155" t="s">
-        <v>147</v>
-      </c>
-      <c r="I155" t="s">
-        <v>218</v>
-      </c>
-      <c r="J155" t="s">
-        <v>219</v>
-      </c>
-      <c r="K155" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156" t="s">
-        <v>11</v>
-      </c>
-      <c r="B156" t="s">
-        <v>12</v>
-      </c>
-      <c r="C156" t="s">
-        <v>13</v>
-      </c>
-      <c r="D156" t="s">
-        <v>221</v>
-      </c>
-      <c r="E156" t="s">
-        <v>222</v>
-      </c>
-      <c r="F156" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" t="s">
-        <v>120</v>
-      </c>
-      <c r="H156" t="s">
-        <v>121</v>
-      </c>
-      <c r="I156" t="s">
-        <v>223</v>
-      </c>
-      <c r="J156" t="s">
-        <v>224</v>
-      </c>
-      <c r="K156" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157" t="s">
-        <v>11</v>
-      </c>
-      <c r="B157" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" t="s">
-        <v>13</v>
-      </c>
-      <c r="D157" t="s">
-        <v>226</v>
-      </c>
-      <c r="E157" t="s">
-        <v>227</v>
-      </c>
-      <c r="F157" t="s">
-        <v>41</v>
-      </c>
-      <c r="G157" t="s">
-        <v>205</v>
-      </c>
-      <c r="H157" t="s">
-        <v>206</v>
-      </c>
-      <c r="I157" t="s">
-        <v>228</v>
-      </c>
-      <c r="J157" t="s">
-        <v>229</v>
-      </c>
-      <c r="K157" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158" t="s">
-        <v>11</v>
-      </c>
-      <c r="B158" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" t="s">
-        <v>13</v>
-      </c>
-      <c r="D158" t="s">
-        <v>231</v>
-      </c>
-      <c r="E158" t="s">
-        <v>232</v>
-      </c>
-      <c r="F158" t="s">
-        <v>233</v>
-      </c>
-      <c r="G158" t="s">
-        <v>234</v>
-      </c>
-      <c r="H158" t="s">
-        <v>235</v>
-      </c>
-      <c r="I158" t="s">
-        <v>236</v>
-      </c>
-      <c r="J158" t="s">
-        <v>237</v>
-      </c>
-      <c r="K158" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159" t="s">
-        <v>11</v>
-      </c>
-      <c r="B159" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" t="s">
-        <v>13</v>
-      </c>
-      <c r="D159" t="s">
-        <v>239</v>
-      </c>
-      <c r="E159" t="s">
-        <v>240</v>
-      </c>
-      <c r="F159" t="s">
-        <v>241</v>
-      </c>
-      <c r="G159" t="s">
-        <v>242</v>
-      </c>
-      <c r="H159" t="s">
-        <v>243</v>
-      </c>
-      <c r="I159" t="s">
-        <v>244</v>
-      </c>
-      <c r="J159" t="s">
-        <v>245</v>
-      </c>
-      <c r="K159" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160" t="s">
-        <v>11</v>
-      </c>
-      <c r="B160" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" t="s">
-        <v>13</v>
-      </c>
-      <c r="D160" t="s">
-        <v>247</v>
-      </c>
-      <c r="E160" t="s">
-        <v>15</v>
-      </c>
-      <c r="F160" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" t="s">
-        <v>248</v>
-      </c>
-      <c r="H160" t="s">
-        <v>249</v>
-      </c>
-      <c r="I160" t="s">
-        <v>250</v>
-      </c>
-      <c r="J160" t="s">
-        <v>251</v>
-      </c>
-      <c r="K160" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161" t="s">
-        <v>11</v>
-      </c>
-      <c r="B161" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" t="s">
-        <v>13</v>
-      </c>
-      <c r="D161" t="s">
-        <v>253</v>
-      </c>
-      <c r="E161" t="s">
-        <v>254</v>
-      </c>
-      <c r="F161" t="s">
-        <v>255</v>
-      </c>
-      <c r="G161" t="s">
-        <v>256</v>
-      </c>
-      <c r="H161" t="s">
-        <v>257</v>
-      </c>
-      <c r="I161" t="s">
-        <v>258</v>
-      </c>
-      <c r="J161" t="s">
-        <v>259</v>
-      </c>
-      <c r="K161" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162" t="s">
-        <v>11</v>
-      </c>
-      <c r="B162" t="s">
-        <v>12</v>
-      </c>
-      <c r="C162" t="s">
-        <v>13</v>
-      </c>
-      <c r="D162" t="s">
-        <v>261</v>
-      </c>
-      <c r="E162" t="s">
-        <v>262</v>
-      </c>
-      <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" t="s">
-        <v>263</v>
-      </c>
-      <c r="H162" t="s">
-        <v>264</v>
-      </c>
-      <c r="I162" t="s">
-        <v>265</v>
-      </c>
-      <c r="J162" t="s">
-        <v>266</v>
-      </c>
-      <c r="K162" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163" t="s">
-        <v>11</v>
-      </c>
-      <c r="B163" t="s">
-        <v>12</v>
-      </c>
-      <c r="C163" t="s">
-        <v>13</v>
-      </c>
-      <c r="D163" t="s">
-        <v>268</v>
-      </c>
-      <c r="E163" t="s">
-        <v>269</v>
-      </c>
-      <c r="F163" t="s">
-        <v>233</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>114</v>
-      </c>
-      <c r="I163" t="s">
-        <v>270</v>
-      </c>
-      <c r="J163" t="s">
-        <v>271</v>
-      </c>
-      <c r="K163" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164" t="s">
-        <v>11</v>
-      </c>
-      <c r="B164" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" t="s">
-        <v>13</v>
-      </c>
-      <c r="D164" t="s">
-        <v>273</v>
-      </c>
-      <c r="E164" t="s">
-        <v>274</v>
-      </c>
-      <c r="F164" t="s">
-        <v>157</v>
-      </c>
-      <c r="G164" t="s">
-        <v>275</v>
-      </c>
-      <c r="H164" t="s">
-        <v>276</v>
-      </c>
-      <c r="I164" t="s">
-        <v>277</v>
-      </c>
-      <c r="J164" t="s">
-        <v>278</v>
-      </c>
-      <c r="K164" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165" t="s">
-        <v>11</v>
-      </c>
-      <c r="B165" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" t="s">
-        <v>13</v>
-      </c>
-      <c r="D165" t="s">
-        <v>280</v>
-      </c>
-      <c r="E165" t="s">
-        <v>281</v>
-      </c>
-      <c r="F165" t="s">
-        <v>67</v>
-      </c>
-      <c r="G165" t="s">
-        <v>282</v>
-      </c>
-      <c r="H165" t="s">
-        <v>283</v>
-      </c>
-      <c r="I165" t="s">
-        <v>284</v>
-      </c>
-      <c r="J165" t="s">
-        <v>285</v>
-      </c>
-      <c r="K165" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166" t="s">
-        <v>11</v>
-      </c>
-      <c r="B166" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" t="s">
-        <v>13</v>
-      </c>
-      <c r="D166" t="s">
-        <v>287</v>
-      </c>
-      <c r="E166" t="s">
-        <v>232</v>
-      </c>
-      <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" t="s">
-        <v>234</v>
-      </c>
-      <c r="H166" t="s">
-        <v>235</v>
-      </c>
-      <c r="I166" t="s">
-        <v>288</v>
-      </c>
-      <c r="J166" t="s">
-        <v>289</v>
-      </c>
-      <c r="K166" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167" t="s">
-        <v>11</v>
-      </c>
-      <c r="B167" t="s">
-        <v>12</v>
-      </c>
-      <c r="C167" t="s">
-        <v>13</v>
-      </c>
-      <c r="D167" t="s">
-        <v>291</v>
-      </c>
-      <c r="E167" t="s">
-        <v>292</v>
-      </c>
-      <c r="F167" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" t="s">
-        <v>248</v>
-      </c>
-      <c r="H167" t="s">
-        <v>249</v>
-      </c>
-      <c r="I167" t="s">
-        <v>293</v>
-      </c>
-      <c r="J167" t="s">
-        <v>294</v>
-      </c>
-      <c r="K167" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168" t="s">
-        <v>11</v>
-      </c>
-      <c r="B168" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" t="s">
-        <v>13</v>
-      </c>
-      <c r="D168" t="s">
-        <v>296</v>
-      </c>
-      <c r="E168" t="s">
-        <v>297</v>
-      </c>
-      <c r="F168" t="s">
-        <v>157</v>
-      </c>
-      <c r="G168" t="s">
-        <v>275</v>
-      </c>
-      <c r="H168" t="s">
-        <v>276</v>
-      </c>
-      <c r="I168" t="s">
-        <v>298</v>
-      </c>
-      <c r="J168" t="s">
-        <v>299</v>
-      </c>
-      <c r="K168" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169" t="s">
-        <v>11</v>
-      </c>
-      <c r="B169" t="s">
-        <v>12</v>
-      </c>
-      <c r="C169" t="s">
-        <v>13</v>
-      </c>
-      <c r="D169" t="s">
-        <v>301</v>
-      </c>
-      <c r="E169" t="s">
-        <v>48</v>
-      </c>
-      <c r="F169" t="s">
-        <v>241</v>
-      </c>
-      <c r="G169" t="s">
-        <v>242</v>
-      </c>
-      <c r="H169" t="s">
-        <v>243</v>
-      </c>
-      <c r="I169" t="s">
-        <v>302</v>
-      </c>
-      <c r="J169" t="s">
-        <v>303</v>
-      </c>
-      <c r="K169" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170" t="s">
-        <v>11</v>
-      </c>
-      <c r="B170" t="s">
-        <v>12</v>
-      </c>
-      <c r="C170" t="s">
-        <v>13</v>
-      </c>
-      <c r="D170" t="s">
-        <v>305</v>
-      </c>
-      <c r="E170" t="s">
-        <v>306</v>
-      </c>
-      <c r="F170" t="s">
-        <v>16</v>
-      </c>
-      <c r="G170" t="s">
-        <v>282</v>
-      </c>
-      <c r="H170" t="s">
-        <v>283</v>
-      </c>
-      <c r="I170" t="s">
-        <v>307</v>
-      </c>
-      <c r="J170" t="s">
-        <v>308</v>
-      </c>
-      <c r="K170" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171" t="s">
-        <v>11</v>
-      </c>
-      <c r="B171" t="s">
-        <v>12</v>
-      </c>
-      <c r="C171" t="s">
-        <v>13</v>
-      </c>
-      <c r="D171" t="s">
-        <v>310</v>
-      </c>
-      <c r="E171" t="s">
-        <v>34</v>
-      </c>
-      <c r="F171" t="s">
-        <v>157</v>
-      </c>
-      <c r="G171" t="s">
-        <v>172</v>
-      </c>
-      <c r="H171" t="s">
-        <v>173</v>
-      </c>
-      <c r="I171" t="s">
-        <v>311</v>
-      </c>
-      <c r="J171" t="s">
-        <v>312</v>
-      </c>
-      <c r="K171" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172" t="s">
-        <v>11</v>
-      </c>
-      <c r="B172" t="s">
-        <v>12</v>
-      </c>
-      <c r="C172" t="s">
-        <v>13</v>
-      </c>
-      <c r="D172" t="s">
-        <v>314</v>
-      </c>
-      <c r="E172" t="s">
-        <v>15</v>
-      </c>
-      <c r="F172" t="s">
-        <v>255</v>
-      </c>
-      <c r="G172" t="s">
-        <v>256</v>
-      </c>
-      <c r="H172" t="s">
-        <v>257</v>
-      </c>
-      <c r="I172" t="s">
-        <v>315</v>
-      </c>
-      <c r="J172" t="s">
-        <v>316</v>
-      </c>
-      <c r="K172" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173" t="s">
-        <v>11</v>
-      </c>
-      <c r="B173" t="s">
-        <v>12</v>
-      </c>
-      <c r="C173" t="s">
-        <v>13</v>
-      </c>
-      <c r="D173" t="s">
-        <v>317</v>
-      </c>
-      <c r="E173" t="s">
-        <v>318</v>
-      </c>
-      <c r="F173" t="s">
-        <v>41</v>
-      </c>
-      <c r="G173" t="s">
-        <v>211</v>
-      </c>
-      <c r="H173" t="s">
-        <v>212</v>
-      </c>
-      <c r="I173" t="s">
-        <v>319</v>
-      </c>
-      <c r="J173" t="s">
-        <v>320</v>
-      </c>
-      <c r="K173" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174" t="s">
-        <v>11</v>
-      </c>
-      <c r="B174" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" t="s">
-        <v>13</v>
-      </c>
-      <c r="D174" t="s">
-        <v>322</v>
-      </c>
-      <c r="E174" t="s">
-        <v>323</v>
-      </c>
-      <c r="F174" t="s">
-        <v>233</v>
-      </c>
-      <c r="G174" t="s">
-        <v>324</v>
-      </c>
-      <c r="H174" t="s">
-        <v>325</v>
-      </c>
-      <c r="I174" t="s">
-        <v>326</v>
-      </c>
-      <c r="J174" t="s">
-        <v>327</v>
-      </c>
-      <c r="K174" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175" t="s">
-        <v>11</v>
-      </c>
-      <c r="B175" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175" t="s">
-        <v>13</v>
-      </c>
-      <c r="D175" t="s">
-        <v>329</v>
-      </c>
-      <c r="E175" t="s">
-        <v>330</v>
-      </c>
-      <c r="F175" t="s">
-        <v>16</v>
-      </c>
-      <c r="G175" t="s">
-        <v>331</v>
-      </c>
-      <c r="H175" t="s">
-        <v>332</v>
-      </c>
-      <c r="I175" t="s">
-        <v>333</v>
-      </c>
-      <c r="J175" t="s">
-        <v>334</v>
-      </c>
-      <c r="K175" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176" t="s">
-        <v>11</v>
-      </c>
-      <c r="B176" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" t="s">
-        <v>13</v>
-      </c>
-      <c r="D176" t="s">
-        <v>336</v>
-      </c>
-      <c r="E176" t="s">
-        <v>337</v>
-      </c>
-      <c r="F176" t="s">
-        <v>241</v>
-      </c>
-      <c r="G176" t="s">
-        <v>338</v>
-      </c>
-      <c r="H176" t="s">
-        <v>339</v>
-      </c>
-      <c r="I176" t="s">
-        <v>340</v>
-      </c>
-      <c r="J176" t="s">
-        <v>341</v>
-      </c>
-      <c r="K176" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="A177" t="s">
-        <v>11</v>
-      </c>
-      <c r="B177" t="s">
-        <v>12</v>
-      </c>
-      <c r="C177" t="s">
-        <v>13</v>
-      </c>
-      <c r="D177" t="s">
-        <v>343</v>
-      </c>
-      <c r="E177" t="s">
-        <v>74</v>
-      </c>
-      <c r="F177" t="s">
-        <v>16</v>
-      </c>
-      <c r="G177" t="s">
-        <v>165</v>
-      </c>
-      <c r="H177" t="s">
-        <v>166</v>
-      </c>
-      <c r="I177" t="s">
-        <v>344</v>
-      </c>
-      <c r="J177" t="s">
-        <v>345</v>
-      </c>
-      <c r="K177" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178" t="s">
-        <v>11</v>
-      </c>
-      <c r="B178" t="s">
-        <v>12</v>
-      </c>
-      <c r="C178" t="s">
-        <v>13</v>
-      </c>
-      <c r="D178" t="s">
-        <v>347</v>
-      </c>
-      <c r="E178" t="s">
-        <v>348</v>
-      </c>
-      <c r="F178" t="s">
-        <v>16</v>
-      </c>
-      <c r="G178" t="s">
-        <v>192</v>
-      </c>
-      <c r="H178" t="s">
-        <v>193</v>
-      </c>
-      <c r="I178" t="s">
-        <v>349</v>
-      </c>
-      <c r="J178" t="s">
-        <v>350</v>
-      </c>
-      <c r="K178" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="A179" t="s">
-        <v>11</v>
-      </c>
-      <c r="B179" t="s">
-        <v>12</v>
-      </c>
-      <c r="C179" t="s">
-        <v>13</v>
-      </c>
-      <c r="D179" t="s">
-        <v>352</v>
-      </c>
-      <c r="E179" t="s">
-        <v>353</v>
-      </c>
-      <c r="F179" t="s">
-        <v>16</v>
-      </c>
-      <c r="G179" t="s">
-        <v>354</v>
-      </c>
-      <c r="H179" t="s">
-        <v>355</v>
-      </c>
-      <c r="I179" t="s">
-        <v>356</v>
-      </c>
-      <c r="J179" t="s">
-        <v>357</v>
-      </c>
-      <c r="K179" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="A180" t="s">
-        <v>11</v>
-      </c>
-      <c r="B180" t="s">
-        <v>12</v>
-      </c>
-      <c r="C180" t="s">
-        <v>13</v>
-      </c>
-      <c r="D180" t="s">
-        <v>359</v>
-      </c>
-      <c r="E180" t="s">
-        <v>360</v>
-      </c>
-      <c r="F180" t="s">
-        <v>255</v>
-      </c>
-      <c r="G180" t="s">
-        <v>361</v>
-      </c>
-      <c r="H180" t="s">
-        <v>362</v>
-      </c>
-      <c r="I180" t="s">
-        <v>363</v>
-      </c>
-      <c r="J180" t="s">
-        <v>364</v>
-      </c>
-      <c r="K180" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="A181" t="s">
-        <v>11</v>
-      </c>
-      <c r="B181" t="s">
-        <v>12</v>
-      </c>
-      <c r="C181" t="s">
-        <v>13</v>
-      </c>
-      <c r="D181" t="s">
-        <v>366</v>
-      </c>
-      <c r="E181" t="s">
-        <v>367</v>
-      </c>
-      <c r="F181" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" t="s">
-        <v>368</v>
-      </c>
-      <c r="H181" t="s">
-        <v>369</v>
-      </c>
-      <c r="I181" t="s">
-        <v>370</v>
-      </c>
-      <c r="J181" t="s">
-        <v>334</v>
-      </c>
-      <c r="K181" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182" t="s">
-        <v>11</v>
-      </c>
-      <c r="B182" t="s">
-        <v>12</v>
-      </c>
-      <c r="C182" t="s">
-        <v>13</v>
-      </c>
-      <c r="D182" t="s">
-        <v>14</v>
-      </c>
-      <c r="E182" t="s">
-        <v>15</v>
-      </c>
-      <c r="F182" t="s">
-        <v>16</v>
-      </c>
-      <c r="G182" t="s">
-        <v>17</v>
-      </c>
-      <c r="H182" t="s">
-        <v>18</v>
-      </c>
-      <c r="I182" t="s">
-        <v>19</v>
-      </c>
-      <c r="J182" t="s">
-        <v>20</v>
-      </c>
-      <c r="K182" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183" t="s">
-        <v>11</v>
-      </c>
-      <c r="B183" t="s">
-        <v>12</v>
-      </c>
-      <c r="C183" t="s">
-        <v>13</v>
-      </c>
-      <c r="D183" t="s">
-        <v>22</v>
-      </c>
-      <c r="E183" t="s">
-        <v>23</v>
-      </c>
-      <c r="F183" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183" t="s">
-        <v>17</v>
-      </c>
-      <c r="H183" t="s">
-        <v>18</v>
-      </c>
-      <c r="I183" t="s">
-        <v>24</v>
-      </c>
-      <c r="J183" t="s">
-        <v>25</v>
-      </c>
-      <c r="K183" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184" t="s">
-        <v>11</v>
-      </c>
-      <c r="B184" t="s">
-        <v>12</v>
-      </c>
-      <c r="C184" t="s">
-        <v>13</v>
-      </c>
-      <c r="D184" t="s">
-        <v>27</v>
-      </c>
-      <c r="E184" t="s">
-        <v>15</v>
-      </c>
-      <c r="F184" t="s">
-        <v>16</v>
-      </c>
-      <c r="G184" t="s">
-        <v>28</v>
-      </c>
-      <c r="H184" t="s">
-        <v>29</v>
-      </c>
-      <c r="I184" t="s">
-        <v>30</v>
-      </c>
-      <c r="J184" t="s">
-        <v>31</v>
-      </c>
-      <c r="K184" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185" t="s">
-        <v>11</v>
-      </c>
-      <c r="B185" t="s">
-        <v>12</v>
-      </c>
-      <c r="C185" t="s">
-        <v>13</v>
-      </c>
-      <c r="D185" t="s">
-        <v>33</v>
-      </c>
-      <c r="E185" t="s">
-        <v>34</v>
-      </c>
-      <c r="F185" t="s">
-        <v>16</v>
-      </c>
-      <c r="G185" t="s">
-        <v>35</v>
-      </c>
-      <c r="H185" t="s">
-        <v>36</v>
-      </c>
-      <c r="I185" t="s">
-        <v>37</v>
-      </c>
-      <c r="J185" t="s">
-        <v>38</v>
-      </c>
-      <c r="K185" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
-      <c r="A186" t="s">
-        <v>11</v>
-      </c>
-      <c r="B186" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" t="s">
-        <v>13</v>
-      </c>
-      <c r="D186" t="s">
-        <v>40</v>
-      </c>
-      <c r="E186" t="s">
-        <v>23</v>
-      </c>
-      <c r="F186" t="s">
-        <v>41</v>
-      </c>
-      <c r="G186" t="s">
-        <v>42</v>
-      </c>
-      <c r="H186" t="s">
-        <v>43</v>
-      </c>
-      <c r="I186" t="s">
-        <v>44</v>
-      </c>
-      <c r="J186" t="s">
-        <v>45</v>
-      </c>
-      <c r="K186" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187" t="s">
-        <v>11</v>
-      </c>
-      <c r="B187" t="s">
-        <v>12</v>
-      </c>
-      <c r="C187" t="s">
-        <v>13</v>
-      </c>
-      <c r="D187" t="s">
-        <v>47</v>
-      </c>
-      <c r="E187" t="s">
-        <v>48</v>
-      </c>
-      <c r="F187" t="s">
-        <v>16</v>
-      </c>
-      <c r="G187" t="s">
-        <v>49</v>
-      </c>
-      <c r="H187" t="s">
-        <v>50</v>
-      </c>
-      <c r="I187" t="s">
-        <v>51</v>
-      </c>
-      <c r="J187" t="s">
-        <v>52</v>
-      </c>
-      <c r="K187" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188" t="s">
-        <v>11</v>
-      </c>
-      <c r="B188" t="s">
-        <v>12</v>
-      </c>
-      <c r="C188" t="s">
-        <v>13</v>
-      </c>
-      <c r="D188" t="s">
-        <v>54</v>
-      </c>
-      <c r="E188" t="s">
-        <v>55</v>
-      </c>
-      <c r="F188" t="s">
-        <v>16</v>
-      </c>
-      <c r="G188" t="s">
-        <v>56</v>
-      </c>
-      <c r="H188" t="s">
-        <v>57</v>
-      </c>
-      <c r="I188" t="s">
-        <v>58</v>
-      </c>
-      <c r="J188" t="s">
-        <v>20</v>
-      </c>
-      <c r="K188" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
-      <c r="A189" t="s">
-        <v>11</v>
-      </c>
-      <c r="B189" t="s">
-        <v>12</v>
-      </c>
-      <c r="C189" t="s">
-        <v>13</v>
-      </c>
-      <c r="D189" t="s">
-        <v>60</v>
-      </c>
-      <c r="E189" t="s">
-        <v>61</v>
-      </c>
-      <c r="F189" t="s">
-        <v>16</v>
-      </c>
-      <c r="G189" t="s">
-        <v>35</v>
-      </c>
-      <c r="H189" t="s">
-        <v>36</v>
-      </c>
-      <c r="I189" t="s">
-        <v>62</v>
-      </c>
-      <c r="J189" t="s">
-        <v>63</v>
-      </c>
-      <c r="K189" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
-      <c r="A190" t="s">
-        <v>11</v>
-      </c>
-      <c r="B190" t="s">
-        <v>12</v>
-      </c>
-      <c r="C190" t="s">
-        <v>13</v>
-      </c>
-      <c r="D190" t="s">
-        <v>65</v>
-      </c>
-      <c r="E190" t="s">
-        <v>66</v>
-      </c>
-      <c r="F190" t="s">
-        <v>67</v>
-      </c>
-      <c r="G190" t="s">
-        <v>68</v>
-      </c>
-      <c r="H190" t="s">
-        <v>69</v>
-      </c>
-      <c r="I190" t="s">
-        <v>70</v>
-      </c>
-      <c r="J190" t="s">
-        <v>71</v>
-      </c>
-      <c r="K190" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
-      <c r="A191" t="s">
-        <v>11</v>
-      </c>
-      <c r="B191" t="s">
-        <v>12</v>
-      </c>
-      <c r="C191" t="s">
-        <v>13</v>
-      </c>
-      <c r="D191" t="s">
-        <v>73</v>
-      </c>
-      <c r="E191" t="s">
-        <v>74</v>
-      </c>
-      <c r="F191" t="s">
-        <v>16</v>
-      </c>
-      <c r="G191" t="s">
-        <v>75</v>
-      </c>
-      <c r="H191" t="s">
-        <v>76</v>
-      </c>
-      <c r="I191" t="s">
-        <v>77</v>
-      </c>
-      <c r="J191" t="s">
-        <v>78</v>
-      </c>
-      <c r="K191" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
-      <c r="A192" t="s">
-        <v>11</v>
-      </c>
-      <c r="B192" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" t="s">
-        <v>13</v>
-      </c>
-      <c r="D192" t="s">
-        <v>80</v>
-      </c>
-      <c r="E192" t="s">
-        <v>81</v>
-      </c>
-      <c r="F192" t="s">
-        <v>67</v>
-      </c>
-      <c r="G192" t="s">
-        <v>68</v>
-      </c>
-      <c r="H192" t="s">
-        <v>69</v>
-      </c>
-      <c r="I192" t="s">
-        <v>82</v>
-      </c>
-      <c r="J192" t="s">
-        <v>83</v>
-      </c>
-      <c r="K192" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193" t="s">
-        <v>11</v>
-      </c>
-      <c r="B193" t="s">
-        <v>12</v>
-      </c>
-      <c r="C193" t="s">
-        <v>13</v>
-      </c>
-      <c r="D193" t="s">
-        <v>85</v>
-      </c>
-      <c r="E193" t="s">
-        <v>86</v>
-      </c>
-      <c r="F193" t="s">
-        <v>16</v>
-      </c>
-      <c r="G193" t="s">
-        <v>28</v>
-      </c>
-      <c r="H193" t="s">
-        <v>29</v>
-      </c>
-      <c r="I193" t="s">
-        <v>87</v>
-      </c>
-      <c r="J193" t="s">
-        <v>88</v>
-      </c>
-      <c r="K193" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194" t="s">
-        <v>11</v>
-      </c>
-      <c r="B194" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" t="s">
-        <v>13</v>
-      </c>
-      <c r="D194" t="s">
-        <v>90</v>
-      </c>
-      <c r="E194" t="s">
-        <v>91</v>
-      </c>
-      <c r="F194" t="s">
-        <v>16</v>
-      </c>
-      <c r="G194" t="s">
-        <v>49</v>
-      </c>
-      <c r="H194" t="s">
-        <v>50</v>
-      </c>
-      <c r="I194" t="s">
-        <v>92</v>
-      </c>
-      <c r="J194" t="s">
-        <v>93</v>
-      </c>
-      <c r="K194" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195" t="s">
-        <v>11</v>
-      </c>
-      <c r="B195" t="s">
-        <v>12</v>
-      </c>
-      <c r="C195" t="s">
-        <v>13</v>
-      </c>
-      <c r="D195" t="s">
-        <v>95</v>
-      </c>
-      <c r="E195" t="s">
-        <v>23</v>
-      </c>
-      <c r="F195" t="s">
-        <v>16</v>
-      </c>
-      <c r="G195" t="s">
-        <v>96</v>
-      </c>
-      <c r="H195" t="s">
-        <v>97</v>
-      </c>
-      <c r="I195" t="s">
-        <v>98</v>
-      </c>
-      <c r="J195" t="s">
-        <v>99</v>
-      </c>
-      <c r="K195" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196" t="s">
-        <v>11</v>
-      </c>
-      <c r="B196" t="s">
-        <v>12</v>
-      </c>
-      <c r="C196" t="s">
-        <v>13</v>
-      </c>
-      <c r="D196" t="s">
-        <v>101</v>
-      </c>
-      <c r="E196" t="s">
-        <v>102</v>
-      </c>
-      <c r="F196" t="s">
-        <v>16</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>103</v>
-      </c>
-      <c r="I196" t="s">
-        <v>104</v>
-      </c>
-      <c r="J196" t="s">
-        <v>105</v>
-      </c>
-      <c r="K196" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197" t="s">
-        <v>11</v>
-      </c>
-      <c r="B197" t="s">
-        <v>12</v>
-      </c>
-      <c r="C197" t="s">
-        <v>13</v>
-      </c>
-      <c r="D197" t="s">
-        <v>107</v>
-      </c>
-      <c r="E197" t="s">
-        <v>108</v>
-      </c>
-      <c r="F197" t="s">
-        <v>16</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>103</v>
-      </c>
-      <c r="I197" t="s">
-        <v>109</v>
-      </c>
-      <c r="J197" t="s">
-        <v>110</v>
-      </c>
-      <c r="K197" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198" t="s">
-        <v>11</v>
-      </c>
-      <c r="B198" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" t="s">
-        <v>13</v>
-      </c>
-      <c r="D198" t="s">
-        <v>112</v>
-      </c>
-      <c r="E198" t="s">
-        <v>113</v>
-      </c>
-      <c r="F198" t="s">
-        <v>16</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>114</v>
-      </c>
-      <c r="I198" t="s">
-        <v>115</v>
-      </c>
-      <c r="J198" t="s">
-        <v>116</v>
-      </c>
-      <c r="K198" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199" t="s">
-        <v>11</v>
-      </c>
-      <c r="B199" t="s">
-        <v>12</v>
-      </c>
-      <c r="C199" t="s">
-        <v>13</v>
-      </c>
-      <c r="D199" t="s">
-        <v>118</v>
-      </c>
-      <c r="E199" t="s">
-        <v>119</v>
-      </c>
-      <c r="F199" t="s">
-        <v>16</v>
-      </c>
-      <c r="G199" t="s">
-        <v>120</v>
-      </c>
-      <c r="H199" t="s">
-        <v>121</v>
-      </c>
-      <c r="I199" t="s">
-        <v>122</v>
-      </c>
-      <c r="J199" t="s">
-        <v>123</v>
-      </c>
-      <c r="K199" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200" t="s">
-        <v>11</v>
-      </c>
-      <c r="B200" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" t="s">
-        <v>13</v>
-      </c>
-      <c r="D200" t="s">
-        <v>125</v>
-      </c>
-      <c r="E200" t="s">
-        <v>126</v>
-      </c>
-      <c r="F200" t="s">
-        <v>16</v>
-      </c>
-      <c r="G200" t="s">
-        <v>127</v>
-      </c>
-      <c r="H200" t="s">
-        <v>128</v>
-      </c>
-      <c r="I200" t="s">
-        <v>129</v>
-      </c>
-      <c r="J200" t="s">
-        <v>130</v>
-      </c>
-      <c r="K200" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201" t="s">
-        <v>11</v>
-      </c>
-      <c r="B201" t="s">
-        <v>12</v>
-      </c>
-      <c r="C201" t="s">
-        <v>13</v>
-      </c>
-      <c r="D201" t="s">
-        <v>132</v>
-      </c>
-      <c r="E201" t="s">
-        <v>133</v>
-      </c>
-      <c r="F201" t="s">
-        <v>16</v>
-      </c>
-      <c r="G201" t="s">
-        <v>134</v>
-      </c>
-      <c r="H201" t="s">
-        <v>135</v>
-      </c>
-      <c r="I201" t="s">
-        <v>136</v>
-      </c>
-      <c r="J201" t="s">
-        <v>137</v>
-      </c>
-      <c r="K201" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202" t="s">
-        <v>11</v>
-      </c>
-      <c r="B202" t="s">
-        <v>12</v>
-      </c>
-      <c r="C202" t="s">
-        <v>13</v>
-      </c>
-      <c r="D202" t="s">
-        <v>139</v>
-      </c>
-      <c r="E202" t="s">
-        <v>140</v>
-      </c>
-      <c r="F202" t="s">
-        <v>16</v>
-      </c>
-      <c r="G202" t="s">
-        <v>127</v>
-      </c>
-      <c r="H202" t="s">
-        <v>128</v>
-      </c>
-      <c r="I202" t="s">
-        <v>141</v>
-      </c>
-      <c r="J202" t="s">
-        <v>142</v>
-      </c>
-      <c r="K202" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203" t="s">
-        <v>11</v>
-      </c>
-      <c r="B203" t="s">
-        <v>12</v>
-      </c>
-      <c r="C203" t="s">
-        <v>13</v>
-      </c>
-      <c r="D203" t="s">
-        <v>144</v>
-      </c>
-      <c r="E203" t="s">
-        <v>145</v>
-      </c>
-      <c r="F203" t="s">
-        <v>16</v>
-      </c>
-      <c r="G203" t="s">
-        <v>146</v>
-      </c>
-      <c r="H203" t="s">
-        <v>147</v>
-      </c>
-      <c r="I203" t="s">
-        <v>148</v>
-      </c>
-      <c r="J203" t="s">
-        <v>149</v>
-      </c>
-      <c r="K203" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204" t="s">
-        <v>11</v>
-      </c>
-      <c r="B204" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" t="s">
-        <v>13</v>
-      </c>
-      <c r="D204" t="s">
-        <v>151</v>
-      </c>
-      <c r="E204" t="s">
-        <v>48</v>
-      </c>
-      <c r="F204" t="s">
-        <v>16</v>
-      </c>
-      <c r="G204" t="s">
-        <v>42</v>
-      </c>
-      <c r="H204" t="s">
-        <v>43</v>
-      </c>
-      <c r="I204" t="s">
-        <v>152</v>
-      </c>
-      <c r="J204" t="s">
-        <v>153</v>
-      </c>
-      <c r="K204" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205" t="s">
-        <v>11</v>
-      </c>
-      <c r="B205" t="s">
-        <v>12</v>
-      </c>
-      <c r="C205" t="s">
-        <v>13</v>
-      </c>
-      <c r="D205" t="s">
-        <v>155</v>
-      </c>
-      <c r="E205" t="s">
-        <v>156</v>
-      </c>
-      <c r="F205" t="s">
-        <v>157</v>
-      </c>
-      <c r="G205" t="s">
-        <v>158</v>
-      </c>
-      <c r="H205" t="s">
-        <v>159</v>
-      </c>
-      <c r="I205" t="s">
-        <v>160</v>
-      </c>
-      <c r="J205" t="s">
-        <v>161</v>
-      </c>
-      <c r="K205" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206" t="s">
-        <v>11</v>
-      </c>
-      <c r="B206" t="s">
-        <v>12</v>
-      </c>
-      <c r="C206" t="s">
-        <v>13</v>
-      </c>
-      <c r="D206" t="s">
-        <v>163</v>
-      </c>
-      <c r="E206" t="s">
-        <v>164</v>
-      </c>
-      <c r="F206" t="s">
-        <v>16</v>
-      </c>
-      <c r="G206" t="s">
-        <v>165</v>
-      </c>
-      <c r="H206" t="s">
-        <v>166</v>
-      </c>
-      <c r="I206" t="s">
-        <v>167</v>
-      </c>
-      <c r="J206" t="s">
-        <v>168</v>
-      </c>
-      <c r="K206" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="A207" t="s">
-        <v>11</v>
-      </c>
-      <c r="B207" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" t="s">
-        <v>13</v>
-      </c>
-      <c r="D207" t="s">
-        <v>170</v>
-      </c>
-      <c r="E207" t="s">
-        <v>171</v>
-      </c>
-      <c r="F207" t="s">
-        <v>67</v>
-      </c>
-      <c r="G207" t="s">
-        <v>172</v>
-      </c>
-      <c r="H207" t="s">
-        <v>173</v>
-      </c>
-      <c r="I207" t="s">
-        <v>174</v>
-      </c>
-      <c r="J207" t="s">
-        <v>175</v>
-      </c>
-      <c r="K207" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="A208" t="s">
-        <v>11</v>
-      </c>
-      <c r="B208" t="s">
-        <v>12</v>
-      </c>
-      <c r="C208" t="s">
-        <v>13</v>
-      </c>
-      <c r="D208" t="s">
-        <v>177</v>
-      </c>
-      <c r="E208" t="s">
-        <v>178</v>
-      </c>
-      <c r="F208" t="s">
-        <v>16</v>
-      </c>
-      <c r="G208" t="s">
-        <v>56</v>
-      </c>
-      <c r="H208" t="s">
-        <v>57</v>
-      </c>
-      <c r="I208" t="s">
-        <v>179</v>
-      </c>
-      <c r="J208" t="s">
-        <v>180</v>
-      </c>
-      <c r="K208" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
-      <c r="A209" t="s">
-        <v>11</v>
-      </c>
-      <c r="B209" t="s">
-        <v>12</v>
-      </c>
-      <c r="C209" t="s">
-        <v>13</v>
-      </c>
-      <c r="D209" t="s">
-        <v>182</v>
-      </c>
-      <c r="E209" t="s">
-        <v>183</v>
-      </c>
-      <c r="F209" t="s">
-        <v>157</v>
-      </c>
-      <c r="G209" t="s">
-        <v>158</v>
-      </c>
-      <c r="H209" t="s">
-        <v>159</v>
-      </c>
-      <c r="I209" t="s">
-        <v>184</v>
-      </c>
-      <c r="J209" t="s">
-        <v>185</v>
-      </c>
-      <c r="K209" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="A210" t="s">
-        <v>11</v>
-      </c>
-      <c r="B210" t="s">
-        <v>12</v>
-      </c>
-      <c r="C210" t="s">
-        <v>13</v>
-      </c>
-      <c r="D210" t="s">
-        <v>187</v>
-      </c>
-      <c r="E210" t="s">
-        <v>23</v>
-      </c>
-      <c r="F210" t="s">
-        <v>16</v>
-      </c>
-      <c r="G210" t="s">
-        <v>96</v>
-      </c>
-      <c r="H210" t="s">
-        <v>97</v>
-      </c>
-      <c r="I210" t="s">
-        <v>188</v>
-      </c>
-      <c r="J210" t="s">
-        <v>185</v>
-      </c>
-      <c r="K210" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="A211" t="s">
-        <v>11</v>
-      </c>
-      <c r="B211" t="s">
-        <v>12</v>
-      </c>
-      <c r="C211" t="s">
-        <v>13</v>
-      </c>
-      <c r="D211" t="s">
-        <v>190</v>
-      </c>
-      <c r="E211" t="s">
-        <v>191</v>
-      </c>
-      <c r="F211" t="s">
-        <v>16</v>
-      </c>
-      <c r="G211" t="s">
-        <v>192</v>
-      </c>
-      <c r="H211" t="s">
-        <v>193</v>
-      </c>
-      <c r="I211" t="s">
-        <v>194</v>
-      </c>
-      <c r="J211" t="s">
-        <v>195</v>
-      </c>
-      <c r="K211" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="A212" t="s">
-        <v>11</v>
-      </c>
-      <c r="B212" t="s">
-        <v>12</v>
-      </c>
-      <c r="C212" t="s">
-        <v>13</v>
-      </c>
-      <c r="D212" t="s">
-        <v>197</v>
-      </c>
-      <c r="E212" t="s">
-        <v>23</v>
-      </c>
-      <c r="F212" t="s">
-        <v>16</v>
-      </c>
-      <c r="G212" t="s">
-        <v>198</v>
-      </c>
-      <c r="H212" t="s">
-        <v>199</v>
-      </c>
-      <c r="I212" t="s">
-        <v>200</v>
-      </c>
-      <c r="J212" t="s">
-        <v>201</v>
-      </c>
-      <c r="K212" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
-      <c r="A213" t="s">
-        <v>11</v>
-      </c>
-      <c r="B213" t="s">
-        <v>12</v>
-      </c>
-      <c r="C213" t="s">
-        <v>13</v>
-      </c>
-      <c r="D213" t="s">
-        <v>203</v>
-      </c>
-      <c r="E213" t="s">
-        <v>204</v>
-      </c>
-      <c r="F213" t="s">
-        <v>16</v>
-      </c>
-      <c r="G213" t="s">
-        <v>205</v>
-      </c>
-      <c r="H213" t="s">
-        <v>206</v>
-      </c>
-      <c r="I213" t="s">
-        <v>207</v>
-      </c>
-      <c r="J213" t="s">
-        <v>208</v>
-      </c>
-      <c r="K213" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11">
-      <c r="A214" t="s">
-        <v>11</v>
-      </c>
-      <c r="B214" t="s">
-        <v>12</v>
-      </c>
-      <c r="C214" t="s">
-        <v>13</v>
-      </c>
-      <c r="D214" t="s">
-        <v>210</v>
-      </c>
-      <c r="E214" t="s">
-        <v>178</v>
-      </c>
-      <c r="F214" t="s">
-        <v>41</v>
-      </c>
-      <c r="G214" t="s">
-        <v>211</v>
-      </c>
-      <c r="H214" t="s">
-        <v>212</v>
-      </c>
-      <c r="I214" t="s">
-        <v>213</v>
-      </c>
-      <c r="J214" t="s">
-        <v>214</v>
-      </c>
-      <c r="K214" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11">
-      <c r="A215" t="s">
-        <v>11</v>
-      </c>
-      <c r="B215" t="s">
-        <v>12</v>
-      </c>
-      <c r="C215" t="s">
-        <v>13</v>
-      </c>
-      <c r="D215" t="s">
-        <v>216</v>
-      </c>
-      <c r="E215" t="s">
-        <v>217</v>
-      </c>
-      <c r="F215" t="s">
-        <v>16</v>
-      </c>
-      <c r="G215" t="s">
-        <v>146</v>
-      </c>
-      <c r="H215" t="s">
-        <v>147</v>
-      </c>
-      <c r="I215" t="s">
-        <v>218</v>
-      </c>
-      <c r="J215" t="s">
-        <v>219</v>
-      </c>
-      <c r="K215" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11">
-      <c r="A216" t="s">
-        <v>11</v>
-      </c>
-      <c r="B216" t="s">
-        <v>12</v>
-      </c>
-      <c r="C216" t="s">
-        <v>13</v>
-      </c>
-      <c r="D216" t="s">
-        <v>221</v>
-      </c>
-      <c r="E216" t="s">
-        <v>222</v>
-      </c>
-      <c r="F216" t="s">
-        <v>16</v>
-      </c>
-      <c r="G216" t="s">
-        <v>120</v>
-      </c>
-      <c r="H216" t="s">
-        <v>121</v>
-      </c>
-      <c r="I216" t="s">
-        <v>223</v>
-      </c>
-      <c r="J216" t="s">
-        <v>224</v>
-      </c>
-      <c r="K216" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11">
-      <c r="A217" t="s">
-        <v>11</v>
-      </c>
-      <c r="B217" t="s">
-        <v>12</v>
-      </c>
-      <c r="C217" t="s">
-        <v>13</v>
-      </c>
-      <c r="D217" t="s">
-        <v>226</v>
-      </c>
-      <c r="E217" t="s">
-        <v>227</v>
-      </c>
-      <c r="F217" t="s">
-        <v>41</v>
-      </c>
-      <c r="G217" t="s">
-        <v>205</v>
-      </c>
-      <c r="H217" t="s">
-        <v>206</v>
-      </c>
-      <c r="I217" t="s">
-        <v>228</v>
-      </c>
-      <c r="J217" t="s">
-        <v>229</v>
-      </c>
-      <c r="K217" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11">
-      <c r="A218" t="s">
-        <v>11</v>
-      </c>
-      <c r="B218" t="s">
-        <v>12</v>
-      </c>
-      <c r="C218" t="s">
-        <v>13</v>
-      </c>
-      <c r="D218" t="s">
-        <v>231</v>
-      </c>
-      <c r="E218" t="s">
-        <v>232</v>
-      </c>
-      <c r="F218" t="s">
-        <v>233</v>
-      </c>
-      <c r="G218" t="s">
-        <v>234</v>
-      </c>
-      <c r="H218" t="s">
-        <v>235</v>
-      </c>
-      <c r="I218" t="s">
-        <v>236</v>
-      </c>
-      <c r="J218" t="s">
-        <v>237</v>
-      </c>
-      <c r="K218" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11">
-      <c r="A219" t="s">
-        <v>11</v>
-      </c>
-      <c r="B219" t="s">
-        <v>12</v>
-      </c>
-      <c r="C219" t="s">
-        <v>13</v>
-      </c>
-      <c r="D219" t="s">
-        <v>239</v>
-      </c>
-      <c r="E219" t="s">
-        <v>240</v>
-      </c>
-      <c r="F219" t="s">
-        <v>241</v>
-      </c>
-      <c r="G219" t="s">
-        <v>242</v>
-      </c>
-      <c r="H219" t="s">
-        <v>243</v>
-      </c>
-      <c r="I219" t="s">
-        <v>244</v>
-      </c>
-      <c r="J219" t="s">
-        <v>245</v>
-      </c>
-      <c r="K219" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11">
-      <c r="A220" t="s">
-        <v>11</v>
-      </c>
-      <c r="B220" t="s">
-        <v>12</v>
-      </c>
-      <c r="C220" t="s">
-        <v>13</v>
-      </c>
-      <c r="D220" t="s">
-        <v>247</v>
-      </c>
-      <c r="E220" t="s">
-        <v>15</v>
-      </c>
-      <c r="F220" t="s">
-        <v>16</v>
-      </c>
-      <c r="G220" t="s">
-        <v>248</v>
-      </c>
-      <c r="H220" t="s">
-        <v>249</v>
-      </c>
-      <c r="I220" t="s">
-        <v>250</v>
-      </c>
-      <c r="J220" t="s">
-        <v>251</v>
-      </c>
-      <c r="K220" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11">
-      <c r="A221" t="s">
-        <v>11</v>
-      </c>
-      <c r="B221" t="s">
-        <v>12</v>
-      </c>
-      <c r="C221" t="s">
-        <v>13</v>
-      </c>
-      <c r="D221" t="s">
-        <v>253</v>
-      </c>
-      <c r="E221" t="s">
-        <v>254</v>
-      </c>
-      <c r="F221" t="s">
-        <v>255</v>
-      </c>
-      <c r="G221" t="s">
-        <v>256</v>
-      </c>
-      <c r="H221" t="s">
-        <v>257</v>
-      </c>
-      <c r="I221" t="s">
-        <v>258</v>
-      </c>
-      <c r="J221" t="s">
-        <v>259</v>
-      </c>
-      <c r="K221" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11">
-      <c r="A222" t="s">
-        <v>11</v>
-      </c>
-      <c r="B222" t="s">
-        <v>12</v>
-      </c>
-      <c r="C222" t="s">
-        <v>13</v>
-      </c>
-      <c r="D222" t="s">
-        <v>261</v>
-      </c>
-      <c r="E222" t="s">
-        <v>262</v>
-      </c>
-      <c r="F222" t="s">
-        <v>16</v>
-      </c>
-      <c r="G222" t="s">
-        <v>263</v>
-      </c>
-      <c r="H222" t="s">
-        <v>264</v>
-      </c>
-      <c r="I222" t="s">
-        <v>265</v>
-      </c>
-      <c r="J222" t="s">
-        <v>266</v>
-      </c>
-      <c r="K222" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11">
-      <c r="A223" t="s">
-        <v>11</v>
-      </c>
-      <c r="B223" t="s">
-        <v>12</v>
-      </c>
-      <c r="C223" t="s">
-        <v>13</v>
-      </c>
-      <c r="D223" t="s">
-        <v>268</v>
-      </c>
-      <c r="E223" t="s">
-        <v>269</v>
-      </c>
-      <c r="F223" t="s">
-        <v>233</v>
-      </c>
-      <c r="G223" t="s"/>
-      <c r="H223" t="s">
-        <v>114</v>
-      </c>
-      <c r="I223" t="s">
-        <v>270</v>
-      </c>
-      <c r="J223" t="s">
-        <v>271</v>
-      </c>
-      <c r="K223" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11">
-      <c r="A224" t="s">
-        <v>11</v>
-      </c>
-      <c r="B224" t="s">
-        <v>12</v>
-      </c>
-      <c r="C224" t="s">
-        <v>13</v>
-      </c>
-      <c r="D224" t="s">
-        <v>273</v>
-      </c>
-      <c r="E224" t="s">
-        <v>274</v>
-      </c>
-      <c r="F224" t="s">
-        <v>157</v>
-      </c>
-      <c r="G224" t="s">
-        <v>275</v>
-      </c>
-      <c r="H224" t="s">
-        <v>276</v>
-      </c>
-      <c r="I224" t="s">
-        <v>277</v>
-      </c>
-      <c r="J224" t="s">
-        <v>278</v>
-      </c>
-      <c r="K224" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11">
-      <c r="A225" t="s">
-        <v>11</v>
-      </c>
-      <c r="B225" t="s">
-        <v>12</v>
-      </c>
-      <c r="C225" t="s">
-        <v>13</v>
-      </c>
-      <c r="D225" t="s">
-        <v>280</v>
-      </c>
-      <c r="E225" t="s">
-        <v>281</v>
-      </c>
-      <c r="F225" t="s">
-        <v>67</v>
-      </c>
-      <c r="G225" t="s">
-        <v>282</v>
-      </c>
-      <c r="H225" t="s">
-        <v>283</v>
-      </c>
-      <c r="I225" t="s">
-        <v>284</v>
-      </c>
-      <c r="J225" t="s">
-        <v>285</v>
-      </c>
-      <c r="K225" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11">
-      <c r="A226" t="s">
-        <v>11</v>
-      </c>
-      <c r="B226" t="s">
-        <v>12</v>
-      </c>
-      <c r="C226" t="s">
-        <v>13</v>
-      </c>
-      <c r="D226" t="s">
-        <v>287</v>
-      </c>
-      <c r="E226" t="s">
-        <v>232</v>
-      </c>
-      <c r="F226" t="s">
-        <v>16</v>
-      </c>
-      <c r="G226" t="s">
-        <v>234</v>
-      </c>
-      <c r="H226" t="s">
-        <v>235</v>
-      </c>
-      <c r="I226" t="s">
-        <v>288</v>
-      </c>
-      <c r="J226" t="s">
-        <v>289</v>
-      </c>
-      <c r="K226" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11">
-      <c r="A227" t="s">
-        <v>11</v>
-      </c>
-      <c r="B227" t="s">
-        <v>12</v>
-      </c>
-      <c r="C227" t="s">
-        <v>13</v>
-      </c>
-      <c r="D227" t="s">
-        <v>291</v>
-      </c>
-      <c r="E227" t="s">
-        <v>292</v>
-      </c>
-      <c r="F227" t="s">
-        <v>16</v>
-      </c>
-      <c r="G227" t="s">
-        <v>248</v>
-      </c>
-      <c r="H227" t="s">
-        <v>249</v>
-      </c>
-      <c r="I227" t="s">
-        <v>293</v>
-      </c>
-      <c r="J227" t="s">
-        <v>294</v>
-      </c>
-      <c r="K227" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11">
-      <c r="A228" t="s">
-        <v>11</v>
-      </c>
-      <c r="B228" t="s">
-        <v>12</v>
-      </c>
-      <c r="C228" t="s">
-        <v>13</v>
-      </c>
-      <c r="D228" t="s">
-        <v>296</v>
-      </c>
-      <c r="E228" t="s">
-        <v>297</v>
-      </c>
-      <c r="F228" t="s">
-        <v>157</v>
-      </c>
-      <c r="G228" t="s">
-        <v>275</v>
-      </c>
-      <c r="H228" t="s">
-        <v>276</v>
-      </c>
-      <c r="I228" t="s">
-        <v>298</v>
-      </c>
-      <c r="J228" t="s">
-        <v>299</v>
-      </c>
-      <c r="K228" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11">
-      <c r="A229" t="s">
-        <v>11</v>
-      </c>
-      <c r="B229" t="s">
-        <v>12</v>
-      </c>
-      <c r="C229" t="s">
-        <v>13</v>
-      </c>
-      <c r="D229" t="s">
-        <v>301</v>
-      </c>
-      <c r="E229" t="s">
-        <v>48</v>
-      </c>
-      <c r="F229" t="s">
-        <v>241</v>
-      </c>
-      <c r="G229" t="s">
-        <v>242</v>
-      </c>
-      <c r="H229" t="s">
-        <v>243</v>
-      </c>
-      <c r="I229" t="s">
-        <v>302</v>
-      </c>
-      <c r="J229" t="s">
-        <v>303</v>
-      </c>
-      <c r="K229" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11">
-      <c r="A230" t="s">
-        <v>11</v>
-      </c>
-      <c r="B230" t="s">
-        <v>12</v>
-      </c>
-      <c r="C230" t="s">
-        <v>13</v>
-      </c>
-      <c r="D230" t="s">
-        <v>305</v>
-      </c>
-      <c r="E230" t="s">
-        <v>306</v>
-      </c>
-      <c r="F230" t="s">
-        <v>16</v>
-      </c>
-      <c r="G230" t="s">
-        <v>282</v>
-      </c>
-      <c r="H230" t="s">
-        <v>283</v>
-      </c>
-      <c r="I230" t="s">
-        <v>307</v>
-      </c>
-      <c r="J230" t="s">
-        <v>308</v>
-      </c>
-      <c r="K230" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11">
-      <c r="A231" t="s">
-        <v>11</v>
-      </c>
-      <c r="B231" t="s">
-        <v>12</v>
-      </c>
-      <c r="C231" t="s">
-        <v>13</v>
-      </c>
-      <c r="D231" t="s">
-        <v>310</v>
-      </c>
-      <c r="E231" t="s">
-        <v>34</v>
-      </c>
-      <c r="F231" t="s">
-        <v>157</v>
-      </c>
-      <c r="G231" t="s">
-        <v>172</v>
-      </c>
-      <c r="H231" t="s">
-        <v>173</v>
-      </c>
-      <c r="I231" t="s">
-        <v>311</v>
-      </c>
-      <c r="J231" t="s">
-        <v>312</v>
-      </c>
-      <c r="K231" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11">
-      <c r="A232" t="s">
-        <v>11</v>
-      </c>
-      <c r="B232" t="s">
-        <v>12</v>
-      </c>
-      <c r="C232" t="s">
-        <v>13</v>
-      </c>
-      <c r="D232" t="s">
-        <v>314</v>
-      </c>
-      <c r="E232" t="s">
-        <v>15</v>
-      </c>
-      <c r="F232" t="s">
-        <v>255</v>
-      </c>
-      <c r="G232" t="s">
-        <v>256</v>
-      </c>
-      <c r="H232" t="s">
-        <v>257</v>
-      </c>
-      <c r="I232" t="s">
-        <v>315</v>
-      </c>
-      <c r="J232" t="s">
-        <v>316</v>
-      </c>
-      <c r="K232" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11">
-      <c r="A233" t="s">
-        <v>11</v>
-      </c>
-      <c r="B233" t="s">
-        <v>12</v>
-      </c>
-      <c r="C233" t="s">
-        <v>13</v>
-      </c>
-      <c r="D233" t="s">
-        <v>317</v>
-      </c>
-      <c r="E233" t="s">
-        <v>318</v>
-      </c>
-      <c r="F233" t="s">
-        <v>41</v>
-      </c>
-      <c r="G233" t="s">
-        <v>211</v>
-      </c>
-      <c r="H233" t="s">
-        <v>212</v>
-      </c>
-      <c r="I233" t="s">
-        <v>319</v>
-      </c>
-      <c r="J233" t="s">
-        <v>320</v>
-      </c>
-      <c r="K233" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11">
-      <c r="A234" t="s">
-        <v>11</v>
-      </c>
-      <c r="B234" t="s">
-        <v>12</v>
-      </c>
-      <c r="C234" t="s">
-        <v>13</v>
-      </c>
-      <c r="D234" t="s">
-        <v>322</v>
-      </c>
-      <c r="E234" t="s">
-        <v>323</v>
-      </c>
-      <c r="F234" t="s">
-        <v>233</v>
-      </c>
-      <c r="G234" t="s">
-        <v>324</v>
-      </c>
-      <c r="H234" t="s">
-        <v>325</v>
-      </c>
-      <c r="I234" t="s">
-        <v>326</v>
-      </c>
-      <c r="J234" t="s">
-        <v>327</v>
-      </c>
-      <c r="K234" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11">
-      <c r="A235" t="s">
-        <v>11</v>
-      </c>
-      <c r="B235" t="s">
-        <v>12</v>
-      </c>
-      <c r="C235" t="s">
-        <v>13</v>
-      </c>
-      <c r="D235" t="s">
-        <v>329</v>
-      </c>
-      <c r="E235" t="s">
-        <v>330</v>
-      </c>
-      <c r="F235" t="s">
-        <v>16</v>
-      </c>
-      <c r="G235" t="s">
-        <v>331</v>
-      </c>
-      <c r="H235" t="s">
-        <v>332</v>
-      </c>
-      <c r="I235" t="s">
-        <v>333</v>
-      </c>
-      <c r="J235" t="s">
-        <v>334</v>
-      </c>
-      <c r="K235" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11">
-      <c r="A236" t="s">
-        <v>11</v>
-      </c>
-      <c r="B236" t="s">
-        <v>12</v>
-      </c>
-      <c r="C236" t="s">
-        <v>13</v>
-      </c>
-      <c r="D236" t="s">
-        <v>336</v>
-      </c>
-      <c r="E236" t="s">
-        <v>337</v>
-      </c>
-      <c r="F236" t="s">
-        <v>241</v>
-      </c>
-      <c r="G236" t="s">
-        <v>338</v>
-      </c>
-      <c r="H236" t="s">
-        <v>339</v>
-      </c>
-      <c r="I236" t="s">
-        <v>340</v>
-      </c>
-      <c r="J236" t="s">
-        <v>341</v>
-      </c>
-      <c r="K236" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11">
-      <c r="A237" t="s">
-        <v>11</v>
-      </c>
-      <c r="B237" t="s">
-        <v>12</v>
-      </c>
-      <c r="C237" t="s">
-        <v>13</v>
-      </c>
-      <c r="D237" t="s">
-        <v>343</v>
-      </c>
-      <c r="E237" t="s">
-        <v>74</v>
-      </c>
-      <c r="F237" t="s">
-        <v>16</v>
-      </c>
-      <c r="G237" t="s">
-        <v>165</v>
-      </c>
-      <c r="H237" t="s">
-        <v>166</v>
-      </c>
-      <c r="I237" t="s">
-        <v>344</v>
-      </c>
-      <c r="J237" t="s">
-        <v>345</v>
-      </c>
-      <c r="K237" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11">
-      <c r="A238" t="s">
-        <v>11</v>
-      </c>
-      <c r="B238" t="s">
-        <v>12</v>
-      </c>
-      <c r="C238" t="s">
-        <v>13</v>
-      </c>
-      <c r="D238" t="s">
-        <v>347</v>
-      </c>
-      <c r="E238" t="s">
-        <v>348</v>
-      </c>
-      <c r="F238" t="s">
-        <v>16</v>
-      </c>
-      <c r="G238" t="s">
-        <v>192</v>
-      </c>
-      <c r="H238" t="s">
-        <v>193</v>
-      </c>
-      <c r="I238" t="s">
-        <v>349</v>
-      </c>
-      <c r="J238" t="s">
-        <v>350</v>
-      </c>
-      <c r="K238" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11">
-      <c r="A239" t="s">
-        <v>11</v>
-      </c>
-      <c r="B239" t="s">
-        <v>12</v>
-      </c>
-      <c r="C239" t="s">
-        <v>13</v>
-      </c>
-      <c r="D239" t="s">
-        <v>352</v>
-      </c>
-      <c r="E239" t="s">
-        <v>353</v>
-      </c>
-      <c r="F239" t="s">
-        <v>16</v>
-      </c>
-      <c r="G239" t="s">
-        <v>354</v>
-      </c>
-      <c r="H239" t="s">
-        <v>355</v>
-      </c>
-      <c r="I239" t="s">
-        <v>356</v>
-      </c>
-      <c r="J239" t="s">
-        <v>357</v>
-      </c>
-      <c r="K239" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11">
-      <c r="A240" t="s">
-        <v>11</v>
-      </c>
-      <c r="B240" t="s">
-        <v>12</v>
-      </c>
-      <c r="C240" t="s">
-        <v>13</v>
-      </c>
-      <c r="D240" t="s">
-        <v>359</v>
-      </c>
-      <c r="E240" t="s">
-        <v>360</v>
-      </c>
-      <c r="F240" t="s">
-        <v>255</v>
-      </c>
-      <c r="G240" t="s">
-        <v>361</v>
-      </c>
-      <c r="H240" t="s">
-        <v>362</v>
-      </c>
-      <c r="I240" t="s">
-        <v>363</v>
-      </c>
-      <c r="J240" t="s">
-        <v>364</v>
-      </c>
-      <c r="K240" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11">
-      <c r="A241" t="s">
-        <v>11</v>
-      </c>
-      <c r="B241" t="s">
-        <v>12</v>
-      </c>
-      <c r="C241" t="s">
-        <v>13</v>
-      </c>
-      <c r="D241" t="s">
-        <v>366</v>
-      </c>
-      <c r="E241" t="s">
-        <v>367</v>
-      </c>
-      <c r="F241" t="s">
-        <v>16</v>
-      </c>
-      <c r="G241" t="s">
-        <v>368</v>
-      </c>
-      <c r="H241" t="s">
-        <v>369</v>
-      </c>
-      <c r="I241" t="s">
-        <v>370</v>
-      </c>
-      <c r="J241" t="s">
-        <v>334</v>
-      </c>
-      <c r="K241" t="s">
-        <v>371</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
